--- a/0322/crashtype.xlsx
+++ b/0322/crashtype.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="26835" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="15600" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="none_circumstance" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">by_year!$A$1:$C$129</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -426,13 +431,13 @@
       <selection activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,7 +453,7 @@
         <v>21038</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -456,7 +461,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -464,7 +469,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -472,7 +477,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -480,7 +485,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -488,7 +493,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -496,7 +501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -504,7 +509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -512,7 +517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -520,7 +525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -528,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -536,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -544,7 +549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -552,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -562,26 +567,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -603,7 +613,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -614,7 +624,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -625,7 +635,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -636,7 +646,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -647,7 +657,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -658,7 +668,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -669,7 +679,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -680,7 +690,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -691,7 +701,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -702,7 +712,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -713,7 +723,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -724,7 +734,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -735,7 +745,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -746,7 +756,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -757,7 +767,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -768,7 +778,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -779,7 +789,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -790,7 +800,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -801,7 +811,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -812,7 +822,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -823,7 +833,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -834,7 +844,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -845,7 +855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -856,7 +866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -867,7 +877,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -878,7 +888,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -889,7 +899,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -900,7 +910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -911,7 +921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -922,7 +932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -933,7 +943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -944,7 +954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -955,7 +965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -966,7 +976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -977,7 +987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -988,7 +998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1372,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1406,7 +1416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1439,7 +1449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1461,7 +1471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -1483,7 +1493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -1505,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -1582,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -1659,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -1725,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -1758,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -1769,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -1813,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -1890,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -1967,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -1989,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -2015,6 +2025,11 @@
     <sortCondition ref="B2:B91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2026,13 +2041,13 @@
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -2048,7 +2063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -2056,7 +2071,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -2064,7 +2079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -2072,7 +2087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -2088,7 +2103,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -2104,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -2120,7 +2135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2130,6 +2145,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2141,13 +2161,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -2163,7 +2183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -2171,7 +2191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -2179,7 +2199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -2187,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -2195,7 +2215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -2203,7 +2223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -2211,7 +2231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -2219,7 +2239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -2227,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -2235,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2245,6 +2265,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2256,9 +2281,9 @@
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -2274,7 +2299,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -2282,7 +2307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -2290,7 +2315,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -2298,7 +2323,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -2306,7 +2331,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -2314,7 +2339,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -2322,7 +2347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -2330,7 +2355,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -2338,7 +2363,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -2346,7 +2371,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2356,6 +2381,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2363,13 +2393,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -2385,7 +2415,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -2393,7 +2423,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -2401,7 +2431,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -2409,7 +2439,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -2417,7 +2447,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -2425,7 +2455,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -2433,7 +2463,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -2441,7 +2471,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -2457,7 +2487,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -2467,5 +2497,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>